--- a/cement_inventory.xlsx
+++ b/cement_inventory.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
-    <t>`</t>
+    <t>Product_Name</t>
   </si>
   <si>
     <t>Weight</t>
@@ -218,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -770,7 +770,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -787,7 +787,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
